--- a/mySystem/mySystem/xls/LDPEBag/11 LDPE 制袋内包标签.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/11 LDPE 制袋内包标签.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\304，LDPE 1#制袋岗位记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
@@ -650,6 +650,60 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -668,51 +722,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -721,15 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +749,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1029,86 +1029,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="15">
         <v>2014081901</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="9">
         <v>2020.07</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1134,98 +1134,98 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="15">
         <v>2014081901</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
